--- a/medião dht22.xlsx
+++ b/medião dht22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Fernando\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Fernando\Documents\GitHub\estacaometeorologica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="9630"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,11 +464,35 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>26.6</v>
+      </c>
+      <c r="C5">
+        <v>26.9</v>
+      </c>
+      <c r="D5">
+        <v>26.6</v>
+      </c>
+      <c r="E5">
+        <v>26.8</v>
+      </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>24.9</v>
+      </c>
+      <c r="C6">
+        <v>24.9</v>
+      </c>
+      <c r="D6">
+        <v>24.9</v>
+      </c>
+      <c r="E6">
+        <v>25.2</v>
+      </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>

--- a/medião dht22.xlsx
+++ b/medião dht22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="9630"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
